--- a/表格.xlsx
+++ b/表格.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Markdown\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Docs\Resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1288ACB6-8FDE-4074-9071-9F157E1CF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C0489A-91EF-40C0-BCF6-F864775C1D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="3470" windowWidth="19200" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,12 +135,122 @@
     <t>邮件在线测评</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>朋友推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应届生求职已投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">武汉 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍弗勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号，未开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合汽车电子UAES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法雷奥valeo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车载互联感知器件DRE</t>
+  </si>
+  <si>
+    <t>官网 等待笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月开始邮件通知</t>
+  </si>
+  <si>
+    <t>邮箱已投递？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇瑞汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMS软件助理工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在校测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好累，明天做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿泉物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉齐物科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C\C++开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 官网已投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +291,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,13 +330,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -495,17 +619,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="3" max="3" width="11.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" customWidth="1"/>
@@ -589,8 +713,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" ht="15.5">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
@@ -602,13 +726,155 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.5">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.5">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.5">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.5">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.5">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.5">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.5">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" ht="15.5">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="20" spans="4:4" ht="16.5">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="4:4" ht="15.5">
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" display="https://xiaomi.jobs.f.mioffice.cn/campus/position/7532384776579367020/detail" xr:uid="{F8C8578B-7184-461D-975E-236DD97316BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/表格.xlsx
+++ b/表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Docs\Resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C0489A-91EF-40C0-BCF6-F864775C1D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5D885-3673-42B7-9715-5E4B24CC5979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="3470" windowWidth="19200" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1630" yWindow="1240" windowWidth="22540" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +191,6 @@
     <t>车载互联感知器件DRE</t>
   </si>
   <si>
-    <t>官网 等待笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9月开始邮件通知</t>
   </si>
   <si>
@@ -244,13 +240,90 @@
   <si>
     <t xml:space="preserve"> 官网已投</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 追觅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网简历怪怪的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门星纵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片机开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾赛科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兰微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件（电机、电源控制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天锐星通</t>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件已投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.23笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查进度https://app.mokahr.com/m/candidate/applications/deliver-query/bosch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应届生入职博世 RBCD的几点建议_牛客网</t>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东济南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理测评</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +370,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -327,10 +408,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,9 +421,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,17 +703,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="3" max="3" width="11.4140625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" customWidth="1"/>
@@ -732,7 +816,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.5">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -778,10 +862,10 @@
         <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.5">
@@ -806,35 +890,35 @@
         <v>38</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" t="s">
         <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5">
       <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -842,39 +926,136 @@
     </row>
     <row r="13" spans="1:8" ht="15.5">
       <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="15.5">
+      <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.5">
-      <c r="A14" s="4"/>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.5">
+      <c r="A15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16.5">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4" ht="15.5">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="20" spans="4:4" ht="16.5">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="4:4" ht="15.5">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5">
+      <c r="A17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.5">
+      <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.5">
       <c r="D21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" display="https://xiaomi.jobs.f.mioffice.cn/campus/position/7532384776579367020/detail" xr:uid="{F8C8578B-7184-461D-975E-236DD97316BC}"/>
+    <hyperlink ref="H19" r:id="rId2" display="https://app.mokahr.com/m/candidate/applications/deliver-query/bosch" xr:uid="{43C16253-4AAE-440F-AE10-829C09DD13A4}"/>
+    <hyperlink ref="I19" r:id="rId3" display="https://www.nowcoder.com/discuss/353159435054948352" xr:uid="{794D18DA-4CC4-433B-BE17-B4C9DA6EBD76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/表格.xlsx
+++ b/表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Docs\Resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5D885-3673-42B7-9715-5E4B24CC5979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D056AFC6-A80E-453A-9E4C-EFE987A6FCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1630" yWindow="1240" windowWidth="22540" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.23笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>博世</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,7 +312,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心理测评</t>
+    <t>笔试已做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理测评已做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -706,7 +707,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -890,7 +891,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5">
@@ -1013,7 +1014,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.5">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1025,18 +1026,18 @@
         <v>20</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
         <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>54</v>

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Docs\Resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D056AFC6-A80E-453A-9E4C-EFE987A6FCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEBB7E9-465B-49CE-984E-C79E861A6CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,12 +319,16 @@
     <t>心理测评已做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> 下次笔试记得带纸笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,8 +383,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +409,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -413,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -423,6 +445,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -707,7 +731,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -890,7 +914,7 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -966,8 +990,11 @@
       <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
-        <v>20</v>
+      <c r="G15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5">

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Docs\Resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEBB7E9-465B-49CE-984E-C79E861A6CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67E1844-13C6-4E52-969A-E2DD07C522FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,12 +323,116 @@
     <t xml:space="preserve"> 下次笔试记得带纸笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>恒生公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++开发工程师职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历已投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群里说是国庆后才发笔试？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应届生/邮件已发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF4C4F54"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常双休，最后一个月的周六加班。加班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF4C4F54"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF4C4F54"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周末</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF4C4F54"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>武汉精测电子集团股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳众芯优创科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【嵌入式单片机工程师招聘】_杭州图谱光电科技有限公司招聘信息-应届生求职网</t>
+  </si>
+  <si>
+    <t>杭州图谱光电科技有限公司</t>
+  </si>
+  <si>
+    <t>应届生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素泰智能科技</t>
+  </si>
+  <si>
+    <t>漕河泾科技绿洲3期-1号楼7楼；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-18k</t>
+  </si>
+  <si>
+    <t>图为电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力电子软件（嵌入式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应届生/官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +489,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF33383D"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF4C4F54"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF4C4F54"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF4C4F54"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -435,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,6 +592,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -728,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -742,7 +893,8 @@
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="8" max="8" width="35.4140625" customWidth="1"/>
+    <col min="9" max="9" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1073,8 +1225,99 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.5">
-      <c r="D21" s="4"/>
+    <row r="21" spans="1:9" ht="16">
+      <c r="A21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.5">
+      <c r="A22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.5">
+      <c r="A23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1082,8 +1325,9 @@
     <hyperlink ref="D10" r:id="rId1" display="https://xiaomi.jobs.f.mioffice.cn/campus/position/7532384776579367020/detail" xr:uid="{F8C8578B-7184-461D-975E-236DD97316BC}"/>
     <hyperlink ref="H19" r:id="rId2" display="https://app.mokahr.com/m/candidate/applications/deliver-query/bosch" xr:uid="{43C16253-4AAE-440F-AE10-829C09DD13A4}"/>
     <hyperlink ref="I19" r:id="rId3" display="https://www.nowcoder.com/discuss/353159435054948352" xr:uid="{794D18DA-4CC4-433B-BE17-B4C9DA6EBD76}"/>
+    <hyperlink ref="H24" r:id="rId4" display="https://q.yingjiesheng.com/jobdetail/165603160.html?property=%7B%22isInitiative%22%3A%22%E6%98%AF%22,%22isSuggest%22%3A%22%E5%90%A6%22,%22pageCode%22%3A%22recommend%7Crecommend%7Crecommendlb%22,%22requestId%22%3A%2208ebdac547a059361de34f823398ee65%22,%22policyType%22%3A%22%E6%8E%A8%E8%8D%90%22,%22policyId%22%3A%22%7B%7D%22,%22jobSource%22%3A%22%E7%BD%91%E6%89%8D%22,%22jobId%22%3A%22165603160%22,%22jobTitle%22%3A%22%E5%B5%8C%E5%85%A5%E5%BC%8F%E5%8D%95%E7%89%87%E6%9C%BA%E5%B7%A5%E7%A8%8B%E5%B8%88%22,%22monthSalary%22%3A%221-1.5%E4%B8%87%C2%B713%E8%96%AA%22,%22companyId%22%3A%222549575%22,%22companyName%22%3A%22%E6%9D%AD%E5%B7%9E%E5%9B%BE%E8%B0%B1%E5%85%89%E7%94%B5%E7%A7%91%E6%8A%80%22,%22jobRank%22%3A%223%22,%22jobType%22%3A%220%22,%22advId%22%3A%22%22,%22exrInfo02%22%3A%22%7B%5C%22retrieverName%5C%22%3A%5C%22DssmRetrievalService,DssmLastnRetrievalService,major_suit_JobSearchRetrievalService%5C%22,%5C%22referJobId%5C%22%3A%5C%22%5C%22,%5C%22intentions%5C%22%3A%5C%22%7BworkFunc%3DA0MZ,%20workFuncStr%3D%E5%B5%8C%E5%85%A5%E5%BC%8F%E8%BD%AF%E4%BB%B6%E5%BC%80%E5%8F%91,%20expectIndustry%3D00,%20expectWorkArea%3D080200,180200,060000,%20maxSalary%3D999999,%20seekType%3D0%7D%5C%22,%5C%22adExtendFunc%5C%22%3A%5C%22%5C%22,%5C%22adExtendCity%5C%22%3A%5C%22%5C%22,%5C%22recommendLabel%5C%22%3A%5C%22%5C%22,%5C%22workFuncMixedLabelResultExrInfo%5C%22%3A%5C%22%5C%22,%5C%22commonLabels%5C%22%3A%5B%5D%7D%22%7D" xr:uid="{33FF9007-DE90-4F0F-8641-2D317FB47C6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>